--- a/Game_Design/Transmission Ideas.xlsx
+++ b/Game_Design/Transmission Ideas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Transmission Ideas</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Auditive associations with huge interpretation value</t>
+  </si>
+  <si>
+    <t>Colours</t>
+  </si>
+  <si>
+    <t>Basic asoociation recogniceble patterns</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +494,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Game_Design/Transmission Ideas.xlsx
+++ b/Game_Design/Transmission Ideas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\ggj18\Game_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\ggj18\ggj18\Game_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Transmission Ideas</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Basic asoociation recogniceble patterns</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lautschrift / Braille Schrift </t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +508,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Game_Design/Transmission Ideas.xlsx
+++ b/Game_Design/Transmission Ideas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\ggj18\ggj18\Game_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\ggj18\Game_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,14 @@
       <color theme="1"/>
       <name val="Algerian"/>
       <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,15 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -423,7 +432,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,22 +442,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -456,7 +465,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
